--- a/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A74F6-4626-4FA7-BA61-6F8A82B3EF85}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3631AF23-50E0-4107-99CA-C719677CAF40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,11 +111,17 @@
     <t>Query</t>
   </si>
   <si>
-    <t>SELECT M.[AgentID],A.[AgentName],M.[AuxName],M.[AuxCode],
+    <t>17-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>SELECT M.[AgentID],A.[AgentName],A.[TeamName],A.[SupervisorName],M.[AuxName],M.[AuxCode],
 CONVERT(char(8),DATEADD(second,sum((DATEPART(hh,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*3600)+
 (DATEPART(mi,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*60)+
 DATEPART(ss,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))),0),108)
-as [AuxTime],A.[TeamName],A.[SupervisorName] from
+as [AuxTime] from
 (SELECT Distinct T1.AgentID,ISNULL(A.[Username],' ')  AS AgentName,T1.[Status] AS AuxName,
 isnull(convert(varchar,C.[value]),' ') AS AuxCode,
 isnull((DATEDIFF(SECOND,convert(datetime,stuff(stuff(stuff(T1.[TimeStamp], 9, 0, ' '), 12, 0, ':'), 15, 0, ':')),
@@ -131,12 +137,6 @@
 AND M.[AuxName] NOT IN ('Login','Logout','Default','Skillaux')
 group by M.[AgentID],A.[AgentName],[AuxName],M.[AuxCode],A.[TeamName],A.[SupervisorName] 
 order by M.AgentID, M.AuxName</t>
-  </si>
-  <si>
-    <t>17-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>20-04-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,13 +1028,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3631AF23-50E0-4107-99CA-C719677CAF40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEF11E-36B1-41DF-8D94-1C8C448BD394}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
     <t>20-04-2020 00:00:00</t>
   </si>
   <si>
-    <t>SELECT M.[AgentID],A.[AgentName],A.[TeamName],A.[SupervisorName],M.[AuxName],M.[AuxCode],
+    <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],A.[SupervisorName] as [Supervisor Name],M.[AuxName],M.[AuxCode],
 CONVERT(char(8),DATEADD(second,sum((DATEPART(hh,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*3600)+
 (DATEPART(mi,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*60)+
 DATEPART(ss,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))),0),108)
@@ -136,7 +136,7 @@
 INNER JOIN fn_AgentHierarchy('na','1','1') A ON A.[AgentId]=M.[AgentID] 
 AND M.[AuxName] NOT IN ('Login','Logout','Default','Skillaux')
 group by M.[AgentID],A.[AgentName],[AuxName],M.[AuxCode],A.[TeamName],A.[SupervisorName] 
-order by M.AgentID, M.AuxName</t>
+order by M.AgentID,A.TeamName,M.AuxName</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEF11E-36B1-41DF-8D94-1C8C448BD394}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD59FDD4-EFCE-4758-8718-70FA16A02C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
     <sheet name="ShowDateRange" sheetId="14" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId3"/>
-    <sheet name="ShowInNewPage" sheetId="2" r:id="rId4"/>
-    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId5"/>
-    <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId7"/>
-    <sheet name="AdvanceSearch" sheetId="15" r:id="rId8"/>
-    <sheet name="Queries" sheetId="17" r:id="rId9"/>
+    <sheet name="ShowInNewPage" sheetId="2" r:id="rId3"/>
+    <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
+    <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
+    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="15" r:id="rId7"/>
+    <sheet name="Queries" sheetId="18" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
   <si>
     <t>Report Channel</t>
   </si>
@@ -45,9 +44,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Date Range</t>
   </si>
   <si>
@@ -66,9 +62,6 @@
     <t>Report Name1</t>
   </si>
   <si>
-    <t>Agent Aux Report</t>
-  </si>
-  <si>
     <t>Column Name</t>
   </si>
   <si>
@@ -78,9 +71,6 @@
     <t>Search String</t>
   </si>
   <si>
-    <t>Palak garg</t>
-  </si>
-  <si>
     <t>Is equal to</t>
   </si>
   <si>
@@ -96,25 +86,55 @@
     <t>Is  not equal to</t>
   </si>
   <si>
-    <t>garg</t>
-  </si>
-  <si>
     <t>Contains</t>
   </si>
   <si>
     <t xml:space="preserve">Starts with </t>
   </si>
   <si>
-    <t>mariyam</t>
-  </si>
-  <si>
     <t>Query</t>
   </si>
   <si>
-    <t>17-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>20-04-2020 00:00:00</t>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Line Agent1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Murali MS</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
   </si>
   <si>
     <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],A.[SupervisorName] as [Supervisor Name],M.[AuxName],M.[AuxCode],
@@ -138,15 +158,57 @@
 group by M.[AgentID],A.[AgentName],[AuxName],M.[AuxCode],A.[TeamName],A.[SupervisorName] 
 order by M.AgentID,A.TeamName,M.AuxName</t>
   </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>01-01-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01-04-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01-03-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Poorvi Shetty</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>29-03-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>30-04-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>03-05-2021 00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,18 +234,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -280,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -465,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,10 +545,11 @@
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,22 +559,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -515,172 +591,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" customWidth="1"/>
     <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,16 +817,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -724,12 +834,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,27 +861,90 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -781,66 +954,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,9 +967,10 @@
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,33 +981,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -897,12 +1021,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,91 +1034,264 @@
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
     <col min="2" max="2" width="21.7265625" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
     <col min="6" max="6" width="16.1796875" customWidth="1"/>
     <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="5" width="22.54296875" customWidth="1"/>
-    <col min="6" max="6" width="73.26953125" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="50.81640625" customWidth="1"/>
+    <col min="6" max="6" width="36.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1008,33 +1305,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD59FDD4-EFCE-4758-8718-70FA16A02C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5455FD32-39AE-4CDB-B646-6BA05CCF7E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
   <si>
     <t>Report Channel</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Murali MS</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>Is not equal to</t>
@@ -159,40 +162,28 @@
 order by M.AgentID,A.TeamName,M.AuxName</t>
   </si>
   <si>
+    <t>02-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>03-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Line Agent3</t>
+  </si>
+  <si>
     <t>z</t>
   </si>
   <si>
-    <t>01-01-2021 00:00:00</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>01-04-2021 00:00:00</t>
   </si>
   <si>
-    <t>01-03-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>Poorvi Shetty</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>29-03-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>30-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>03-05-2021 00:00:00</t>
+    <t>07-04-2021 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -537,7 +528,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,7 +537,6 @@
     <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -577,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
@@ -593,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +598,7 @@
     <col min="7" max="7" width="17.26953125" customWidth="1"/>
     <col min="8" max="8" width="24.1796875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -666,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -724,7 +714,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -750,7 +740,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -776,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +884,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -957,7 +947,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1088,10 +1078,10 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1104,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1123,10 +1113,10 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1136,13 +1126,13 @@
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -1156,23 +1146,23 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1187,10 +1177,10 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1200,10 +1190,10 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1218,10 +1208,10 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1231,10 +1221,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1249,10 +1239,10 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1262,10 +1252,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1280,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1325,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentAuxReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5455FD32-39AE-4CDB-B646-6BA05CCF7E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BDDBE9-6537-4DD3-9B65-22688E009F57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,28 @@
     <t>Ends with</t>
   </si>
   <si>
-    <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],A.[SupervisorName] as [Supervisor Name],M.[AuxName],M.[AuxCode],
+    <t>02-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>03-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Line Agent3</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>09-11-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>SELECT M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Org.Unit],A.[SupervisorName] as [Supervisor Name],M.[AuxName],M.[AuxCode],
 CONVERT(char(8),DATEADD(second,sum((DATEPART(hh,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*3600)+
 (DATEPART(mi,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))*60)+
 DATEPART(ss,CONVERT(varchar, DATEADD(ms, AuxTime* 1000, 0), 108))),0),108)
@@ -162,28 +183,7 @@
 order by M.AgentID,A.TeamName,M.AuxName</t>
   </si>
   <si>
-    <t>02-11-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>03-11-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>Line Agent3</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>01-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>07-04-2021 00:00:00</t>
+    <t>09-10-2021 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -531,15 +531,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -567,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
@@ -583,25 +583,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -644,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>23</v>
@@ -665,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -676,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -691,7 +691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -702,10 +702,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -728,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -740,10 +740,10 @@
         <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -754,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -783,15 +783,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -832,15 +832,15 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -887,17 +887,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -950,17 +950,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -994,10 +994,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -1019,21 +1019,21 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1079,10 +1079,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>15</v>
@@ -1094,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>8</v>
@@ -1103,7 +1103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1114,10 +1114,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>15</v>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1147,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
@@ -1167,7 +1167,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1178,10 +1178,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -1193,12 +1193,12 @@
         <v>33</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1209,10 +1209,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>15</v>
@@ -1224,12 +1224,12 @@
         <v>35</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1240,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -1255,7 +1255,7 @@
         <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1270,21 +1270,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="50.81640625" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="50.77734375" customWidth="1"/>
+    <col min="6" max="6" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1315,13 +1315,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
